--- a/biology/Médecine/Blastocystose/Blastocystose.xlsx
+++ b/biology/Médecine/Blastocystose/Blastocystose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La blastocystose est la maladie déclenchée par un parasite : Blastocystis hominis. Il s'agit d'une maladie hydrique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La blastocystose est la maladie déclenchée par un parasite : Blastocystis hominis. Il s'agit d'une maladie hydrique.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blastocystis est le parasite intestinal le plus fréquemment retrouvé chez l'homme. Bien que décrit pour la première fois il y a plus de 100 ans, il reste de nombreuses zones d'ombre sur sa biologie et son épidémiologie. La prévalence du Blastocystis chez l’homme varie selon les régions du monde, allant de 0,5% au Japon jusqu’à 60% en Malaisie. De façon générale, cette parasitose est plus fréquente dans les pays en développement. Sur la France, il existe peu de données épidémiologiques.[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blastocystis est le parasite intestinal le plus fréquemment retrouvé chez l'homme. Bien que décrit pour la première fois il y a plus de 100 ans, il reste de nombreuses zones d'ombre sur sa biologie et son épidémiologie. La prévalence du Blastocystis chez l’homme varie selon les régions du monde, allant de 0,5% au Japon jusqu’à 60% en Malaisie. De façon générale, cette parasitose est plus fréquente dans les pays en développement. Sur la France, il existe peu de données épidémiologiques.
 </t>
         </is>
       </c>
@@ -568,7 +584,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La blastocystose est une infection du tractus gastro-intestinal de l'homme ou d'autres espèces, qui se déclare après l'ingestion d'un Blastocystis.
 </t>
@@ -601,11 +619,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Signes fonctionnels
-L'infection fait apparaître des douleurs gastriques soudaines et intenses, périodiquement. 
-Examen clinique
-Le diagnostic repose sur un examen parasitologique des selles en laboratoire d'analyses médicales. 
-Examens complémentaires</t>
+          <t>Signes fonctionnels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infection fait apparaître des douleurs gastriques soudaines et intenses, périodiquement. 
+</t>
         </is>
       </c>
     </row>
@@ -630,10 +651,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Examen clinique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic repose sur un examen parasitologique des selles en laboratoire d'analyses médicales. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -656,10 +688,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Prise en charge</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,10 +716,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Évolution et complications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Blastocystose</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blastocystose</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
